--- a/refs/heads/main/all-profiles.xlsx
+++ b/refs/heads/main/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2344" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2344" uniqueCount="203">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-25T17:31:41+00:00</t>
+    <t>2023-01-10T10:46:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>Global (Whole world)</t>
   </si>
   <si>
     <t>Description</t>
@@ -241,6 +241,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>Base</t>
@@ -949,7 +953,7 @@
         <v>2</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25">
@@ -957,7 +961,7 @@
         <v>4</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26">
@@ -973,7 +977,7 @@
         <v>8</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28">
@@ -981,7 +985,7 @@
         <v>9</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29">
@@ -989,7 +993,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30">
@@ -1035,7 +1039,7 @@
         <v>22</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36">
@@ -1071,7 +1075,7 @@
         <v>29</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="41">
@@ -1079,7 +1083,7 @@
         <v>30</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="42">
@@ -1111,7 +1115,7 @@
         <v>2</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="46">
@@ -1119,7 +1123,7 @@
         <v>4</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="47">
@@ -1135,7 +1139,7 @@
         <v>8</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="49">
@@ -1143,7 +1147,7 @@
         <v>9</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="50">
@@ -1151,7 +1155,7 @@
         <v>11</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="51">
@@ -1197,7 +1201,7 @@
         <v>22</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="57">
@@ -1233,7 +1237,7 @@
         <v>29</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="62">
@@ -1241,7 +1245,7 @@
         <v>30</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="63">
@@ -1273,7 +1277,7 @@
         <v>2</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="67">
@@ -1281,7 +1285,7 @@
         <v>4</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="68">
@@ -1297,7 +1301,7 @@
         <v>8</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="70">
@@ -1305,7 +1309,7 @@
         <v>9</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="71">
@@ -1313,7 +1317,7 @@
         <v>11</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="72">
@@ -1359,7 +1363,7 @@
         <v>22</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="78">
@@ -1395,7 +1399,7 @@
         <v>29</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="83">
@@ -1403,7 +1407,7 @@
         <v>30</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="84">
@@ -1435,7 +1439,7 @@
         <v>2</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="88">
@@ -1443,7 +1447,7 @@
         <v>4</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="89">
@@ -1459,7 +1463,7 @@
         <v>8</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="91">
@@ -1467,7 +1471,7 @@
         <v>9</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="92">
@@ -1475,7 +1479,7 @@
         <v>11</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="93">
@@ -1521,7 +1525,7 @@
         <v>22</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="99">
@@ -1557,7 +1561,7 @@
         <v>29</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="104">
@@ -1565,7 +1569,7 @@
         <v>30</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="105">
@@ -1597,7 +1601,7 @@
         <v>2</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="109">
@@ -1621,7 +1625,7 @@
         <v>8</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="112">
@@ -1629,7 +1633,7 @@
         <v>9</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="113">
@@ -1637,7 +1641,7 @@
         <v>11</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="114">
@@ -1683,7 +1687,7 @@
         <v>22</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="120">
@@ -1727,7 +1731,7 @@
         <v>30</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="126">
@@ -1759,7 +1763,7 @@
         <v>2</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="130">
@@ -1767,7 +1771,7 @@
         <v>4</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="131">
@@ -1783,7 +1787,7 @@
         <v>8</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="133">
@@ -1791,7 +1795,7 @@
         <v>9</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="134">
@@ -1799,7 +1803,7 @@
         <v>11</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="135">
@@ -1845,7 +1849,7 @@
         <v>22</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="141">
@@ -1881,7 +1885,7 @@
         <v>29</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="146">
@@ -1889,7 +1893,7 @@
         <v>30</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="147">
@@ -1921,7 +1925,7 @@
         <v>2</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="151">
@@ -1929,7 +1933,7 @@
         <v>4</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="152">
@@ -1945,7 +1949,7 @@
         <v>8</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="154">
@@ -1953,7 +1957,7 @@
         <v>9</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="155">
@@ -1961,7 +1965,7 @@
         <v>11</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="156">
@@ -2007,7 +2011,7 @@
         <v>22</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="162">
@@ -2043,7 +2047,7 @@
         <v>29</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="167">
@@ -2051,7 +2055,7 @@
         <v>30</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="168">
@@ -2083,7 +2087,7 @@
         <v>2</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="172">
@@ -2091,7 +2095,7 @@
         <v>4</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="173">
@@ -2107,7 +2111,7 @@
         <v>8</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="175">
@@ -2115,7 +2119,7 @@
         <v>9</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="176">
@@ -2123,7 +2127,7 @@
         <v>11</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="177">
@@ -2169,7 +2173,7 @@
         <v>22</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="183">
@@ -2205,7 +2209,7 @@
         <v>29</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="188">
@@ -2213,7 +2217,7 @@
         <v>30</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="189">
@@ -2245,7 +2249,7 @@
         <v>2</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="193">
@@ -2253,7 +2257,7 @@
         <v>4</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="194">
@@ -2269,7 +2273,7 @@
         <v>8</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="196">
@@ -2277,7 +2281,7 @@
         <v>9</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="197">
@@ -2285,7 +2289,7 @@
         <v>11</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="198">
@@ -2331,7 +2335,7 @@
         <v>22</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="204">
@@ -2367,7 +2371,7 @@
         <v>29</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="209">
@@ -2375,7 +2379,7 @@
         <v>30</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="210">
@@ -2595,7 +2599,7 @@
         <v>73</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M2" t="s" s="2">
         <v>10</v>
@@ -2652,7 +2656,7 @@
         <v>73</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH2" t="s" s="2">
         <v>74</v>
@@ -2675,10 +2679,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
@@ -2686,7 +2690,7 @@
       </c>
       <c r="F3" s="2"/>
       <c r="G3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>75</v>
@@ -2701,13 +2705,13 @@
         <v>73</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
@@ -2758,10 +2762,10 @@
         <v>73</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>75</v>
@@ -2781,10 +2785,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
@@ -2792,10 +2796,10 @@
       </c>
       <c r="F4" s="2"/>
       <c r="G4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I4" t="s" s="2">
         <v>73</v>
@@ -2807,13 +2811,13 @@
         <v>73</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
@@ -2864,13 +2868,13 @@
         <v>73</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>73</v>
@@ -2887,10 +2891,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
@@ -2898,7 +2902,7 @@
       </c>
       <c r="F5" s="2"/>
       <c r="G5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>75</v>
@@ -2913,13 +2917,13 @@
         <v>73</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M5" t="s" s="2">
         <v>29</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -2970,10 +2974,10 @@
         <v>73</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>75</v>
@@ -2993,10 +2997,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
@@ -3019,13 +3023,13 @@
         <v>73</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -3076,7 +3080,7 @@
         <v>73</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>74</v>
@@ -3099,10 +3103,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -3110,7 +3114,7 @@
       </c>
       <c r="F7" s="2"/>
       <c r="G7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>75</v>
@@ -3125,13 +3129,13 @@
         <v>73</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -3182,10 +3186,10 @@
         <v>73</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>75</v>
@@ -3205,10 +3209,10 @@
         <v>3</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -3219,7 +3223,7 @@
         <v>74</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I8" t="s" s="2">
         <v>73</v>
@@ -3231,13 +3235,13 @@
         <v>73</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
@@ -3288,13 +3292,13 @@
         <v>73</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>73</v>
@@ -3311,10 +3315,10 @@
         <v>3</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -3337,13 +3341,13 @@
         <v>73</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
@@ -3394,7 +3398,7 @@
         <v>73</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>74</v>
@@ -3417,10 +3421,10 @@
         <v>3</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -3431,7 +3435,7 @@
         <v>74</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>73</v>
@@ -3443,13 +3447,13 @@
         <v>73</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
@@ -3500,13 +3504,13 @@
         <v>73</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>73</v>
@@ -3523,10 +3527,10 @@
         <v>3</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -3537,7 +3541,7 @@
         <v>74</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>73</v>
@@ -3549,13 +3553,13 @@
         <v>73</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
@@ -3606,13 +3610,13 @@
         <v>73</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>73</v>
@@ -3629,10 +3633,10 @@
         <v>3</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -3640,10 +3644,10 @@
       </c>
       <c r="F12" s="2"/>
       <c r="G12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>73</v>
@@ -3655,13 +3659,13 @@
         <v>73</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
@@ -3712,13 +3716,13 @@
         <v>73</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>73</v>
@@ -3735,10 +3739,10 @@
         <v>3</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -3749,7 +3753,7 @@
         <v>74</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>73</v>
@@ -3761,13 +3765,13 @@
         <v>73</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -3818,13 +3822,13 @@
         <v>73</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>73</v>
@@ -3841,10 +3845,10 @@
         <v>3</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -3852,7 +3856,7 @@
       </c>
       <c r="F14" s="2"/>
       <c r="G14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>75</v>
@@ -3867,13 +3871,13 @@
         <v>73</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -3924,10 +3928,10 @@
         <v>73</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>75</v>
@@ -3947,10 +3951,10 @@
         <v>3</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3973,13 +3977,13 @@
         <v>73</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -4030,7 +4034,7 @@
         <v>73</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>74</v>
@@ -4053,10 +4057,10 @@
         <v>3</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -4067,7 +4071,7 @@
         <v>74</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>73</v>
@@ -4079,13 +4083,13 @@
         <v>73</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -4136,13 +4140,13 @@
         <v>73</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>73</v>
@@ -4159,10 +4163,10 @@
         <v>3</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -4173,7 +4177,7 @@
         <v>74</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>73</v>
@@ -4185,13 +4189,13 @@
         <v>73</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -4242,13 +4246,13 @@
         <v>73</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>73</v>
@@ -4265,10 +4269,10 @@
         <v>3</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -4279,7 +4283,7 @@
         <v>74</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>73</v>
@@ -4291,13 +4295,13 @@
         <v>73</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
@@ -4348,13 +4352,13 @@
         <v>73</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>73</v>
@@ -4368,13 +4372,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -4397,13 +4401,13 @@
         <v>73</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
@@ -4454,7 +4458,7 @@
         <v>73</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>74</v>
@@ -4474,13 +4478,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -4488,7 +4492,7 @@
       </c>
       <c r="F20" s="2"/>
       <c r="G20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>75</v>
@@ -4500,16 +4504,16 @@
         <v>73</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
@@ -4560,10 +4564,10 @@
         <v>73</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>75</v>
@@ -4580,13 +4584,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4594,10 +4598,10 @@
       </c>
       <c r="F21" s="2"/>
       <c r="G21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>73</v>
@@ -4606,16 +4610,16 @@
         <v>73</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
@@ -4666,13 +4670,13 @@
         <v>73</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>73</v>
@@ -4686,13 +4690,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -4715,13 +4719,13 @@
         <v>73</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
@@ -4772,7 +4776,7 @@
         <v>73</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>74</v>
@@ -4792,13 +4796,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4806,10 +4810,10 @@
       </c>
       <c r="F23" s="2"/>
       <c r="G23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>73</v>
@@ -4821,13 +4825,13 @@
         <v>73</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
@@ -4878,13 +4882,13 @@
         <v>73</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>73</v>
@@ -4898,13 +4902,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4912,10 +4916,10 @@
       </c>
       <c r="F24" s="2"/>
       <c r="G24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>73</v>
@@ -4927,13 +4931,13 @@
         <v>73</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M24" t="s" s="2">
         <v>29</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
@@ -4984,13 +4988,13 @@
         <v>73</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>73</v>
@@ -5004,13 +5008,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -5033,13 +5037,13 @@
         <v>73</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
@@ -5090,7 +5094,7 @@
         <v>73</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>74</v>
@@ -5110,13 +5114,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -5124,10 +5128,10 @@
       </c>
       <c r="F26" s="2"/>
       <c r="G26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>73</v>
@@ -5139,13 +5143,13 @@
         <v>73</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M26" t="s" s="2">
         <v>29</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
@@ -5196,13 +5200,13 @@
         <v>73</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>73</v>
@@ -5216,13 +5220,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -5245,13 +5249,13 @@
         <v>73</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
@@ -5302,7 +5306,7 @@
         <v>73</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>74</v>
@@ -5322,13 +5326,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -5336,10 +5340,10 @@
       </c>
       <c r="F28" s="2"/>
       <c r="G28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>73</v>
@@ -5351,13 +5355,13 @@
         <v>73</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
@@ -5408,13 +5412,13 @@
         <v>73</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>73</v>
@@ -5428,13 +5432,13 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -5442,10 +5446,10 @@
       </c>
       <c r="F29" s="2"/>
       <c r="G29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>73</v>
@@ -5457,13 +5461,13 @@
         <v>73</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M29" t="s" s="2">
         <v>29</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
@@ -5514,13 +5518,13 @@
         <v>73</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>73</v>
@@ -5534,13 +5538,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -5563,13 +5567,13 @@
         <v>73</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
@@ -5620,7 +5624,7 @@
         <v>73</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>74</v>
@@ -5640,13 +5644,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5654,7 +5658,7 @@
       </c>
       <c r="F31" s="2"/>
       <c r="G31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>75</v>
@@ -5669,13 +5673,13 @@
         <v>73</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
@@ -5726,10 +5730,10 @@
         <v>73</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>75</v>
@@ -5746,13 +5750,13 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5760,10 +5764,10 @@
       </c>
       <c r="F32" s="2"/>
       <c r="G32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>73</v>
@@ -5775,13 +5779,13 @@
         <v>73</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
@@ -5832,13 +5836,13 @@
         <v>73</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>73</v>
@@ -5852,13 +5856,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5866,7 +5870,7 @@
       </c>
       <c r="F33" s="2"/>
       <c r="G33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>75</v>
@@ -5881,13 +5885,13 @@
         <v>73</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>29</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
@@ -5938,10 +5942,10 @@
         <v>73</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>75</v>
@@ -5958,13 +5962,13 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5987,13 +5991,13 @@
         <v>73</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
@@ -6044,7 +6048,7 @@
         <v>73</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>74</v>
@@ -6064,13 +6068,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -6078,7 +6082,7 @@
       </c>
       <c r="F35" s="2"/>
       <c r="G35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>75</v>
@@ -6093,13 +6097,13 @@
         <v>73</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
@@ -6150,10 +6154,10 @@
         <v>73</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>75</v>
@@ -6170,13 +6174,13 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -6187,7 +6191,7 @@
         <v>74</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>73</v>
@@ -6199,13 +6203,13 @@
         <v>73</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
@@ -6256,13 +6260,13 @@
         <v>73</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>73</v>
@@ -6276,13 +6280,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -6305,13 +6309,13 @@
         <v>73</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
@@ -6362,7 +6366,7 @@
         <v>73</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>74</v>
@@ -6382,13 +6386,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6399,7 +6403,7 @@
         <v>74</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>73</v>
@@ -6411,13 +6415,13 @@
         <v>73</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
@@ -6468,13 +6472,13 @@
         <v>73</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>73</v>
@@ -6488,13 +6492,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6505,7 +6509,7 @@
         <v>74</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>73</v>
@@ -6517,13 +6521,13 @@
         <v>73</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
@@ -6574,13 +6578,13 @@
         <v>73</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>73</v>
@@ -6594,13 +6598,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6608,10 +6612,10 @@
       </c>
       <c r="F40" s="2"/>
       <c r="G40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>73</v>
@@ -6623,13 +6627,13 @@
         <v>73</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
@@ -6680,13 +6684,13 @@
         <v>73</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>73</v>
@@ -6700,13 +6704,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6717,7 +6721,7 @@
         <v>74</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>73</v>
@@ -6729,13 +6733,13 @@
         <v>73</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
@@ -6786,13 +6790,13 @@
         <v>73</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>73</v>
@@ -6806,13 +6810,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6820,7 +6824,7 @@
       </c>
       <c r="F42" s="2"/>
       <c r="G42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>75</v>
@@ -6835,13 +6839,13 @@
         <v>73</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
@@ -6892,10 +6896,10 @@
         <v>73</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>75</v>
@@ -6912,13 +6916,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6941,13 +6945,13 @@
         <v>73</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
@@ -6998,7 +7002,7 @@
         <v>73</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>74</v>
@@ -7018,13 +7022,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -7035,7 +7039,7 @@
         <v>74</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>73</v>
@@ -7047,13 +7051,13 @@
         <v>73</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
@@ -7104,13 +7108,13 @@
         <v>73</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>73</v>
@@ -7124,13 +7128,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -7141,7 +7145,7 @@
         <v>74</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>73</v>
@@ -7153,13 +7157,13 @@
         <v>73</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
@@ -7210,13 +7214,13 @@
         <v>73</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>73</v>
@@ -7230,13 +7234,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7247,7 +7251,7 @@
         <v>74</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>73</v>
@@ -7259,13 +7263,13 @@
         <v>73</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
@@ -7316,13 +7320,13 @@
         <v>73</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>73</v>
@@ -7336,13 +7340,13 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7365,13 +7369,13 @@
         <v>73</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
@@ -7422,7 +7426,7 @@
         <v>73</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>74</v>
@@ -7442,13 +7446,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7459,7 +7463,7 @@
         <v>74</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>73</v>
@@ -7471,13 +7475,13 @@
         <v>73</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
@@ -7528,13 +7532,13 @@
         <v>73</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>73</v>
@@ -7548,13 +7552,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7577,13 +7581,13 @@
         <v>73</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
@@ -7634,7 +7638,7 @@
         <v>73</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>74</v>
@@ -7654,13 +7658,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7671,7 +7675,7 @@
         <v>74</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>73</v>
@@ -7683,13 +7687,13 @@
         <v>73</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
@@ -7740,13 +7744,13 @@
         <v>73</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>73</v>
@@ -7760,13 +7764,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7774,10 +7778,10 @@
       </c>
       <c r="F51" s="2"/>
       <c r="G51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>73</v>
@@ -7789,7 +7793,7 @@
         <v>73</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M51" t="s" s="2">
         <v>25</v>
@@ -7846,13 +7850,13 @@
         <v>73</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>73</v>
@@ -7866,13 +7870,13 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7880,10 +7884,10 @@
       </c>
       <c r="F52" s="2"/>
       <c r="G52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>73</v>
@@ -7895,13 +7899,13 @@
         <v>73</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
@@ -7952,13 +7956,13 @@
         <v>73</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>73</v>
@@ -7972,13 +7976,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -8001,13 +8005,13 @@
         <v>73</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
@@ -8058,7 +8062,7 @@
         <v>73</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>74</v>
@@ -8078,13 +8082,13 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -8092,10 +8096,10 @@
       </c>
       <c r="F54" s="2"/>
       <c r="G54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>73</v>
@@ -8107,13 +8111,13 @@
         <v>73</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
@@ -8164,13 +8168,13 @@
         <v>73</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>73</v>
@@ -8184,13 +8188,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8198,10 +8202,10 @@
       </c>
       <c r="F55" s="2"/>
       <c r="G55" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>73</v>
@@ -8213,13 +8217,13 @@
         <v>73</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>29</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
@@ -8270,13 +8274,13 @@
         <v>73</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>73</v>
@@ -8290,13 +8294,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8319,13 +8323,13 @@
         <v>73</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
@@ -8376,7 +8380,7 @@
         <v>73</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>74</v>
@@ -8396,13 +8400,13 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8413,7 +8417,7 @@
         <v>74</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>73</v>
@@ -8425,13 +8429,13 @@
         <v>73</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
@@ -8482,13 +8486,13 @@
         <v>73</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>73</v>
@@ -8502,13 +8506,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8516,10 +8520,10 @@
       </c>
       <c r="F58" s="2"/>
       <c r="G58" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>73</v>
@@ -8531,13 +8535,13 @@
         <v>73</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M58" t="s" s="2">
         <v>29</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
@@ -8588,13 +8592,13 @@
         <v>73</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>73</v>

--- a/refs/heads/main/all-profiles.xlsx
+++ b/refs/heads/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-10T10:46:51+00:00</t>
+    <t>2023-01-10T13:29:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/all-profiles.xlsx
+++ b/refs/heads/main/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2344" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2911" uniqueCount="223">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://litlfred.github.io/iv-vcs/StructureDefinition/VerifiableCredentialBundle</t>
+    <t>http://litlfred.github.io/ig-vcs/StructureDefinition/VerifiableCredentialBundle</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-10T13:29:07+00:00</t>
+    <t>2023-01-10T13:29:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -108,7 +108,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://litlfred.github.io/iv-vcs/StructureDefinition/VerifiableCredential</t>
+    <t>http://litlfred.github.io/ig-vcs/StructureDefinition/VerifiableCredentialBase</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -266,7 +266,7 @@
     <t>Sets the context of the verifiable credential</t>
   </si>
   <si>
-    <t>VerifiableCredential.context</t>
+    <t>VerifiableCredentialBase.context</t>
   </si>
   <si>
     <t>VerifiableCredentialBundle.id</t>
@@ -282,7 +282,7 @@
     <t>The value of the id property MUST be a single URI. It is RECOMMENDED that the URI in the id be one which, if dereferenced, results in a document containing machine-readable information about the id.</t>
   </si>
   <si>
-    <t>VerifiableCredential.id</t>
+    <t>VerifiableCredentialBase.id</t>
   </si>
   <si>
     <t>VerifiableCredentialBundle.type</t>
@@ -291,33 +291,20 @@
     <t>The value of the type property</t>
   </si>
   <si>
-    <t>VerifiableCredential.type</t>
+    <t>VerifiableCredentialBase.type</t>
   </si>
   <si>
     <t>VerifiableCredentialBundle.credentialStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">http://litlfred.github.io/iv-vcs/StructureDefinition/VerifiableCredentialStatus
+    <t xml:space="preserve">http://litlfred.github.io/ig-vcs/StructureDefinition/VerifiableCredentialStatus
 </t>
   </si>
   <si>
     <t>Verifiable Credential Status</t>
   </si>
   <si>
-    <t>VerifiableCredential.credentialStatus</t>
-  </si>
-  <si>
-    <t>VerifiableCredentialBundle.credentialSubject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://litlfred.github.io/iv-vcs/StructureDefinition/VerifiableCredentialSubject
-</t>
-  </si>
-  <si>
-    <t>Verifiable Credential Subject</t>
-  </si>
-  <si>
-    <t>VerifiableCredential.credentialSubject</t>
+    <t>VerifiableCredentialBase.credentialStatus</t>
   </si>
   <si>
     <t>VerifiableCredentialBundle.expirationDate</t>
@@ -333,13 +320,13 @@
     <t>The date and time the credential ceases to be valid.</t>
   </si>
   <si>
-    <t>VerifiableCredential.expirationDate</t>
+    <t>VerifiableCredentialBase.expirationDate</t>
   </si>
   <si>
     <t>VerifiableCredentialBundle.evidence</t>
   </si>
   <si>
-    <t xml:space="preserve">http://litlfred.github.io/iv-vcs/StructureDefinition/VerifiableCredentialEvidence
+    <t xml:space="preserve">http://litlfred.github.io/ig-vcs/StructureDefinition/VerifiableCredentialEvidence
 </t>
   </si>
   <si>
@@ -349,7 +336,7 @@
     <t>Verifiable Credential Evidence</t>
   </si>
   <si>
-    <t>VerifiableCredential.evidence</t>
+    <t>VerifiableCredentialBase.evidence</t>
   </si>
   <si>
     <t>VerifiableCredentialBundle.holder</t>
@@ -361,7 +348,7 @@
     <t>The holder of the credential</t>
   </si>
   <si>
-    <t>VerifiableCredential.holder</t>
+    <t>VerifiableCredentialBase.holder</t>
   </si>
   <si>
     <t>VerifiableCredentialBundle.issued</t>
@@ -370,7 +357,7 @@
     <t>Issued</t>
   </si>
   <si>
-    <t>VerifiableCredential.issued</t>
+    <t>VerifiableCredentialBase.issued</t>
   </si>
   <si>
     <t>VerifiableCredentialBundle.issuer</t>
@@ -382,7 +369,7 @@
     <t>The entity that issued the credential</t>
   </si>
   <si>
-    <t>VerifiableCredential.issuer</t>
+    <t>VerifiableCredentialBase.issuer</t>
   </si>
   <si>
     <t>VerifiableCredentialBundle.issuanceDate</t>
@@ -394,13 +381,13 @@
     <t>The date and time the credential becomes valid, which could be a date and time in the future. Note that this value represents the earliest point in time at which the information associated with the credentialSubject property becomes valid.</t>
   </si>
   <si>
-    <t>VerifiableCredential.issuanceDate</t>
+    <t>VerifiableCredentialBase.issuanceDate</t>
   </si>
   <si>
     <t>VerifiableCredentialBundle.proof</t>
   </si>
   <si>
-    <t xml:space="preserve">http://litlfred.github.io/iv-vcs/StructureDefinition/VerifiableCredentialProof
+    <t xml:space="preserve">http://litlfred.github.io/ig-vcs/StructureDefinition/VerifiableCredentialProof
 </t>
   </si>
   <si>
@@ -410,33 +397,33 @@
     <t>One or more cryptographic proofs that can be used to detect tampering and verify the authorship</t>
   </si>
   <si>
-    <t>VerifiableCredential.proof</t>
+    <t>VerifiableCredentialBase.proof</t>
   </si>
   <si>
     <t>VerifiableCredentialBundle.refreshService</t>
   </si>
   <si>
-    <t xml:space="preserve">http://litlfred.github.io/iv-vcs/StructureDefinition/VerifiableCredentialRefreshService
+    <t xml:space="preserve">http://litlfred.github.io/ig-vcs/StructureDefinition/VerifiableCredentialRefreshService
 </t>
   </si>
   <si>
     <t>Refresh Service</t>
   </si>
   <si>
-    <t>VerifiableCredential.refreshService</t>
+    <t>VerifiableCredentialBase.refreshService</t>
   </si>
   <si>
     <t>VerifiableCredentialBundle.termsofUse</t>
   </si>
   <si>
-    <t xml:space="preserve">http://litlfred.github.io/iv-vcs/StructureDefinition/VerifiableCredentialTermsOfUse
+    <t xml:space="preserve">http://litlfred.github.io/ig-vcs/StructureDefinition/VerifiableCredentialTermsOfUse
 </t>
   </si>
   <si>
     <t>Terms of Use</t>
   </si>
   <si>
-    <t>VerifiableCredential.termsofUse</t>
+    <t>VerifiableCredentialBase.termsofUse</t>
   </si>
   <si>
     <t>VerifiableCredentialBundle.validFrom</t>
@@ -445,7 +432,7 @@
     <t>Valid From</t>
   </si>
   <si>
-    <t>VerifiableCredential.validFrom</t>
+    <t>VerifiableCredentialBase.validFrom</t>
   </si>
   <si>
     <t>VerifiableCredentialBundle.validUntil</t>
@@ -454,13 +441,23 @@
     <t>Valid Until</t>
   </si>
   <si>
-    <t>VerifiableCredential.validUntil</t>
+    <t>VerifiableCredentialBase.validUntil</t>
+  </si>
+  <si>
+    <t>VerifiableCredentialBundle.credentialSubject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://litlfred.github.io/ig-vcs/StructureDefinition/VerifiableCredentialSubjectBundle
+</t>
+  </si>
+  <si>
+    <t>Verifiable Credential Subject</t>
   </si>
   <si>
     <t>VerfiableCredentialJWT</t>
   </si>
   <si>
-    <t>http://litlfred.github.io/iv-vcs/StructureDefinition/VerifiableCredentialJWT</t>
+    <t>http://litlfred.github.io/ig-vcs/StructureDefinition/VerifiableCredentialJWT</t>
   </si>
   <si>
     <t>Logical Model for Verifiable Credentials as JWT</t>
@@ -487,10 +484,22 @@
     <t>Issuer</t>
   </si>
   <si>
+    <t>VerifiableCredentialBase</t>
+  </si>
+  <si>
+    <t>Base Logical Model for Verifiable Credentials</t>
+  </si>
+  <si>
+    <t>Base Logical Model for Verifiable Credentials. Omits the credentialSubject.  Non-abstract should be instantiated for each credentialSubject schema</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
     <t>VerifiableCredentialRefreshService</t>
   </si>
   <si>
-    <t>http://litlfred.github.io/iv-vcs/StructureDefinition/VerifiableCredentialRefreshService</t>
+    <t>http://litlfred.github.io/ig-vcs/StructureDefinition/VerifiableCredentialRefreshService</t>
   </si>
   <si>
     <t>Logical Model for Verifiable Refresh Service</t>
@@ -515,7 +524,7 @@
     <t>VerifiableCredentialProof</t>
   </si>
   <si>
-    <t>http://litlfred.github.io/iv-vcs/StructureDefinition/VerifiableCredentialProof</t>
+    <t>http://litlfred.github.io/ig-vcs/StructureDefinition/VerifiableCredentialProof</t>
   </si>
   <si>
     <t>Logical Model for Verifiable Credential Proof</t>
@@ -534,7 +543,7 @@
     <t>VerifiableCredentialTermsOfUse</t>
   </si>
   <si>
-    <t>http://litlfred.github.io/iv-vcs/StructureDefinition/VerifiableCredentialTermsOfUse</t>
+    <t>http://litlfred.github.io/ig-vcs/StructureDefinition/VerifiableCredentialTermsOfUse</t>
   </si>
   <si>
     <t>Logical Model for Verifiable Credential Terms of Use</t>
@@ -555,13 +564,68 @@
     <t>VerifiableCredential</t>
   </si>
   <si>
+    <t>http://litlfred.github.io/ig-vcs/StructureDefinition/VerifiableCredential</t>
+  </si>
+  <si>
     <t>Logical Model for Verifiable Credentials</t>
   </si>
   <si>
+    <t>VerifiableCredential.context</t>
+  </si>
+  <si>
+    <t>VerifiableCredential.id</t>
+  </si>
+  <si>
+    <t>VerifiableCredential.type</t>
+  </si>
+  <si>
+    <t>VerifiableCredential.credentialStatus</t>
+  </si>
+  <si>
+    <t>VerifiableCredential.expirationDate</t>
+  </si>
+  <si>
+    <t>VerifiableCredential.evidence</t>
+  </si>
+  <si>
+    <t>VerifiableCredential.holder</t>
+  </si>
+  <si>
+    <t>VerifiableCredential.issued</t>
+  </si>
+  <si>
+    <t>VerifiableCredential.issuer</t>
+  </si>
+  <si>
+    <t>VerifiableCredential.issuanceDate</t>
+  </si>
+  <si>
+    <t>VerifiableCredential.proof</t>
+  </si>
+  <si>
+    <t>VerifiableCredential.refreshService</t>
+  </si>
+  <si>
+    <t>VerifiableCredential.termsofUse</t>
+  </si>
+  <si>
+    <t>VerifiableCredential.validFrom</t>
+  </si>
+  <si>
+    <t>VerifiableCredential.validUntil</t>
+  </si>
+  <si>
+    <t>VerifiableCredential.credentialSubject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://litlfred.github.io/ig-vcs/StructureDefinition/VerifiableCredentialSubject
+</t>
+  </si>
+  <si>
     <t>VerifiableCredentialSubject</t>
   </si>
   <si>
-    <t>http://litlfred.github.io/iv-vcs/StructureDefinition/VerifiableCredentialSubject</t>
+    <t>http://litlfred.github.io/ig-vcs/StructureDefinition/VerifiableCredentialSubject</t>
   </si>
   <si>
     <t>Logical Model for Verifiable Credential Subject</t>
@@ -576,7 +640,7 @@
     <t>VerifiableCredentialSubjectBundle</t>
   </si>
   <si>
-    <t>http://litlfred.github.io/iv-vcs/StructureDefinition/VerifiableCredentialSubjectBundle</t>
+    <t>http://litlfred.github.io/ig-vcs/StructureDefinition/VerifiableCredentialSubjectBundle</t>
   </si>
   <si>
     <t>Logical Model for Verifiable Credential Subject - FHIR Bundle</t>
@@ -598,13 +662,10 @@
     <t>FHIR Bundle</t>
   </si>
   <si>
-    <t>FHIB Bundle</t>
-  </si>
-  <si>
     <t>VerifiableCredentialStatus</t>
   </si>
   <si>
-    <t>http://litlfred.github.io/iv-vcs/StructureDefinition/VerifiableCredentialStatus</t>
+    <t>http://litlfred.github.io/ig-vcs/StructureDefinition/VerifiableCredentialStatus</t>
   </si>
   <si>
     <t>Logical Model for Verifiable Credential Status</t>
@@ -619,7 +680,7 @@
     <t>VerifiableCredentialEvidence</t>
   </si>
   <si>
-    <t>http://litlfred.github.io/iv-vcs/StructureDefinition/VerifiableCredentialEvidence</t>
+    <t>http://litlfred.github.io/ig-vcs/StructureDefinition/VerifiableCredentialEvidence</t>
   </si>
   <si>
     <t>Logical Model for Verifiable Credential Evidence</t>
@@ -768,7 +829,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:B211"/>
+  <dimension ref="A2:B232"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -953,7 +1014,7 @@
         <v>2</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25">
@@ -961,7 +1022,7 @@
         <v>4</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26">
@@ -977,7 +1038,7 @@
         <v>8</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28">
@@ -985,7 +1046,7 @@
         <v>9</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29">
@@ -993,7 +1054,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30">
@@ -1039,7 +1100,7 @@
         <v>22</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36">
@@ -1075,7 +1136,7 @@
         <v>29</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41">
@@ -1083,7 +1144,7 @@
         <v>30</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="42">
@@ -1115,7 +1176,7 @@
         <v>2</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="46">
@@ -1123,7 +1184,7 @@
         <v>4</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>155</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47">
@@ -1139,7 +1200,7 @@
         <v>8</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="49">
@@ -1147,7 +1208,7 @@
         <v>9</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="50">
@@ -1155,7 +1216,7 @@
         <v>11</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="51">
@@ -1201,7 +1262,7 @@
         <v>22</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="57">
@@ -1237,7 +1298,7 @@
         <v>29</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>155</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62">
@@ -1245,7 +1306,7 @@
         <v>30</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="63">
@@ -1253,7 +1314,7 @@
         <v>32</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>33</v>
+        <v>156</v>
       </c>
     </row>
     <row r="64">
@@ -1277,7 +1338,7 @@
         <v>2</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="67">
@@ -1285,7 +1346,7 @@
         <v>4</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="68">
@@ -1301,7 +1362,7 @@
         <v>8</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="70">
@@ -1309,7 +1370,7 @@
         <v>9</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="71">
@@ -1317,7 +1378,7 @@
         <v>11</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="72">
@@ -1363,7 +1424,7 @@
         <v>22</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="78">
@@ -1399,7 +1460,7 @@
         <v>29</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="83">
@@ -1407,7 +1468,7 @@
         <v>30</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="84">
@@ -1439,7 +1500,7 @@
         <v>2</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="88">
@@ -1447,7 +1508,7 @@
         <v>4</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="89">
@@ -1463,7 +1524,7 @@
         <v>8</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="91">
@@ -1471,7 +1532,7 @@
         <v>9</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="92">
@@ -1479,7 +1540,7 @@
         <v>11</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="93">
@@ -1525,7 +1586,7 @@
         <v>22</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="99">
@@ -1561,7 +1622,7 @@
         <v>29</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="104">
@@ -1569,7 +1630,7 @@
         <v>30</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="105">
@@ -1601,7 +1662,7 @@
         <v>2</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="109">
@@ -1609,7 +1670,7 @@
         <v>4</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>31</v>
+        <v>172</v>
       </c>
     </row>
     <row r="110">
@@ -1625,7 +1686,7 @@
         <v>8</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="112">
@@ -1633,7 +1694,7 @@
         <v>9</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="113">
@@ -1641,7 +1702,7 @@
         <v>11</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="114">
@@ -1687,7 +1748,7 @@
         <v>22</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="120">
@@ -1723,7 +1784,7 @@
         <v>29</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>31</v>
+        <v>172</v>
       </c>
     </row>
     <row r="125">
@@ -1731,7 +1792,7 @@
         <v>30</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="126">
@@ -1763,7 +1824,7 @@
         <v>2</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="130">
@@ -1771,7 +1832,7 @@
         <v>4</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="131">
@@ -1787,7 +1848,7 @@
         <v>8</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="133">
@@ -1795,7 +1856,7 @@
         <v>9</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="134">
@@ -1803,7 +1864,7 @@
         <v>11</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>147</v>
+        <v>12</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1910,7 @@
         <v>22</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="141">
@@ -1885,7 +1946,7 @@
         <v>29</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="146">
@@ -1893,7 +1954,7 @@
         <v>30</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>148</v>
+        <v>31</v>
       </c>
     </row>
     <row r="147">
@@ -1925,7 +1986,7 @@
         <v>2</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>182</v>
+        <v>198</v>
       </c>
     </row>
     <row r="151">
@@ -1933,7 +1994,7 @@
         <v>4</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>183</v>
+        <v>199</v>
       </c>
     </row>
     <row r="152">
@@ -1949,7 +2010,7 @@
         <v>8</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>182</v>
+        <v>198</v>
       </c>
     </row>
     <row r="154">
@@ -1957,7 +2018,7 @@
         <v>9</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>184</v>
+        <v>200</v>
       </c>
     </row>
     <row r="155">
@@ -1965,7 +2026,7 @@
         <v>11</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="156">
@@ -2011,7 +2072,7 @@
         <v>22</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>184</v>
+        <v>200</v>
       </c>
     </row>
     <row r="162">
@@ -2047,7 +2108,7 @@
         <v>29</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>183</v>
+        <v>199</v>
       </c>
     </row>
     <row r="167">
@@ -2055,7 +2116,7 @@
         <v>30</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>178</v>
+        <v>147</v>
       </c>
     </row>
     <row r="168">
@@ -2087,7 +2148,7 @@
         <v>2</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>191</v>
+        <v>203</v>
       </c>
     </row>
     <row r="172">
@@ -2095,7 +2156,7 @@
         <v>4</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>192</v>
+        <v>204</v>
       </c>
     </row>
     <row r="173">
@@ -2111,7 +2172,7 @@
         <v>8</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>191</v>
+        <v>203</v>
       </c>
     </row>
     <row r="175">
@@ -2119,7 +2180,7 @@
         <v>9</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>193</v>
+        <v>205</v>
       </c>
     </row>
     <row r="176">
@@ -2127,7 +2188,7 @@
         <v>11</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="177">
@@ -2173,7 +2234,7 @@
         <v>22</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>193</v>
+        <v>205</v>
       </c>
     </row>
     <row r="183">
@@ -2209,7 +2270,7 @@
         <v>29</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>192</v>
+        <v>204</v>
       </c>
     </row>
     <row r="188">
@@ -2217,7 +2278,7 @@
         <v>30</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>148</v>
+        <v>199</v>
       </c>
     </row>
     <row r="189">
@@ -2249,7 +2310,7 @@
         <v>2</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>196</v>
+        <v>211</v>
       </c>
     </row>
     <row r="193">
@@ -2257,7 +2318,7 @@
         <v>4</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>197</v>
+        <v>212</v>
       </c>
     </row>
     <row r="194">
@@ -2273,7 +2334,7 @@
         <v>8</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>196</v>
+        <v>211</v>
       </c>
     </row>
     <row r="196">
@@ -2281,7 +2342,7 @@
         <v>9</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>198</v>
+        <v>213</v>
       </c>
     </row>
     <row r="197">
@@ -2289,7 +2350,7 @@
         <v>11</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="198">
@@ -2335,7 +2396,7 @@
         <v>22</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>198</v>
+        <v>213</v>
       </c>
     </row>
     <row r="204">
@@ -2371,7 +2432,7 @@
         <v>29</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>197</v>
+        <v>212</v>
       </c>
     </row>
     <row r="209">
@@ -2379,7 +2440,7 @@
         <v>30</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="210">
@@ -2395,6 +2456,168 @@
         <v>34</v>
       </c>
       <c r="B211" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B212" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B213" t="s" s="2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B214" t="s" s="2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B215" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B216" t="s" s="2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="B217" t="s" s="2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="B218" t="s" s="2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B219" s="2"/>
+    </row>
+    <row r="220">
+      <c r="A220" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B220" t="s" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B221" t="s" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B222" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B223" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B224" t="s" s="2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B225" s="2"/>
+    </row>
+    <row r="226">
+      <c r="A226" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B226" s="2"/>
+    </row>
+    <row r="227">
+      <c r="A227" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B227" t="s" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B228" t="s" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B229" t="s" s="2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B230" t="s" s="2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B231" t="s" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B232" t="s" s="2">
         <v>35</v>
       </c>
     </row>
@@ -2405,7 +2628,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL58"/>
+  <dimension ref="A1:AL74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3114,10 +3337,10 @@
       </c>
       <c r="F7" s="2"/>
       <c r="G7" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>73</v>
@@ -3135,7 +3358,7 @@
         <v>98</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -3186,13 +3409,13 @@
         <v>73</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>73</v>
@@ -3209,10 +3432,10 @@
         <v>3</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -3223,7 +3446,7 @@
         <v>74</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I8" t="s" s="2">
         <v>73</v>
@@ -3235,13 +3458,13 @@
         <v>73</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
@@ -3292,13 +3515,13 @@
         <v>73</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>73</v>
@@ -3315,10 +3538,10 @@
         <v>3</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -3329,7 +3552,7 @@
         <v>74</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>73</v>
@@ -3341,7 +3564,7 @@
         <v>73</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="M9" t="s" s="2">
         <v>107</v>
@@ -3404,7 +3627,7 @@
         <v>74</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>73</v>
@@ -3447,13 +3670,13 @@
         <v>73</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="M10" t="s" s="2">
         <v>111</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
@@ -3504,7 +3727,7 @@
         <v>73</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>74</v>
@@ -3527,10 +3750,10 @@
         <v>3</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -3538,7 +3761,7 @@
       </c>
       <c r="F11" s="2"/>
       <c r="G11" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>79</v>
@@ -3553,10 +3776,10 @@
         <v>73</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N11" t="s" s="2">
         <v>115</v>
@@ -3613,7 +3836,7 @@
         <v>116</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>79</v>
@@ -3644,7 +3867,7 @@
       </c>
       <c r="F12" s="2"/>
       <c r="G12" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>79</v>
@@ -3659,7 +3882,7 @@
         <v>73</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="M12" t="s" s="2">
         <v>118</v>
@@ -3719,7 +3942,7 @@
         <v>120</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>79</v>
@@ -3750,10 +3973,10 @@
       </c>
       <c r="F13" s="2"/>
       <c r="G13" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>73</v>
@@ -3765,13 +3988,13 @@
         <v>73</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -3822,13 +4045,13 @@
         <v>73</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>73</v>
@@ -3845,10 +4068,10 @@
         <v>3</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -3856,7 +4079,7 @@
       </c>
       <c r="F14" s="2"/>
       <c r="G14" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>75</v>
@@ -3871,10 +4094,10 @@
         <v>73</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N14" t="s" s="2">
         <v>128</v>
@@ -3931,7 +4154,7 @@
         <v>129</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>75</v>
@@ -3965,7 +4188,7 @@
         <v>74</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>73</v>
@@ -4040,7 +4263,7 @@
         <v>74</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>73</v>
@@ -4083,13 +4306,13 @@
         <v>73</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="M16" t="s" s="2">
-        <v>136</v>
-      </c>
       <c r="N16" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -4140,7 +4363,7 @@
         <v>73</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>74</v>
@@ -4163,10 +4386,10 @@
         <v>3</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -4189,13 +4412,13 @@
         <v>73</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -4246,7 +4469,7 @@
         <v>73</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>74</v>
@@ -4269,10 +4492,10 @@
         <v>3</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -4280,10 +4503,10 @@
       </c>
       <c r="F18" s="2"/>
       <c r="G18" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>73</v>
@@ -4295,7 +4518,7 @@
         <v>73</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="M18" t="s" s="2">
         <v>142</v>
@@ -4352,13 +4575,13 @@
         <v>73</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>73</v>
@@ -4372,13 +4595,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -4404,10 +4627,10 @@
         <v>76</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
@@ -4478,13 +4701,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -4504,7 +4727,7 @@
         <v>73</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L20" t="s" s="2">
         <v>85</v>
@@ -4564,7 +4787,7 @@
         <v>73</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>79</v>
@@ -4584,13 +4807,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4610,16 +4833,16 @@
         <v>73</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L21" t="s" s="2">
         <v>85</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
@@ -4670,7 +4893,7 @@
         <v>73</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>79</v>
@@ -4690,13 +4913,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -4722,10 +4945,10 @@
         <v>76</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
@@ -4796,13 +5019,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>157</v>
+        <v>83</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>157</v>
+        <v>83</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4813,7 +5036,7 @@
         <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>73</v>
@@ -4828,10 +5051,10 @@
         <v>80</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>158</v>
+        <v>82</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
@@ -4882,13 +5105,13 @@
         <v>73</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>157</v>
+        <v>83</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>73</v>
@@ -4902,13 +5125,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>159</v>
+        <v>88</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>159</v>
+        <v>88</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4931,13 +5154,13 @@
         <v>73</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>160</v>
+        <v>85</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>161</v>
+        <v>87</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
@@ -4988,7 +5211,7 @@
         <v>73</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>159</v>
+        <v>88</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>79</v>
@@ -5008,13 +5231,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>162</v>
+        <v>91</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>162</v>
+        <v>91</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -5022,7 +5245,7 @@
       </c>
       <c r="F25" s="2"/>
       <c r="G25" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>75</v>
@@ -5037,13 +5260,13 @@
         <v>73</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>164</v>
+        <v>29</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>164</v>
+        <v>90</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
@@ -5094,10 +5317,10 @@
         <v>73</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>75</v>
@@ -5114,13 +5337,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>165</v>
+        <v>95</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>165</v>
+        <v>95</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -5128,10 +5351,10 @@
       </c>
       <c r="F26" s="2"/>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>73</v>
@@ -5143,13 +5366,13 @@
         <v>73</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>166</v>
+        <v>93</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>167</v>
+        <v>94</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
@@ -5200,13 +5423,13 @@
         <v>73</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>165</v>
+        <v>95</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>73</v>
@@ -5220,13 +5443,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>168</v>
+        <v>100</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>168</v>
+        <v>100</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -5237,7 +5460,7 @@
         <v>74</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>73</v>
@@ -5249,13 +5472,13 @@
         <v>73</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>170</v>
+        <v>98</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>170</v>
+        <v>99</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
@@ -5306,13 +5529,13 @@
         <v>73</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>73</v>
@@ -5326,13 +5549,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>171</v>
+        <v>105</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>171</v>
+        <v>105</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -5340,10 +5563,10 @@
       </c>
       <c r="F28" s="2"/>
       <c r="G28" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>73</v>
@@ -5355,13 +5578,13 @@
         <v>73</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>172</v>
+        <v>104</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
@@ -5412,13 +5635,13 @@
         <v>73</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>171</v>
+        <v>105</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>73</v>
@@ -5432,13 +5655,13 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>173</v>
+        <v>109</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>173</v>
+        <v>109</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -5446,7 +5669,7 @@
       </c>
       <c r="F29" s="2"/>
       <c r="G29" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>79</v>
@@ -5461,13 +5684,13 @@
         <v>73</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>174</v>
+        <v>108</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
@@ -5518,10 +5741,10 @@
         <v>73</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>173</v>
+        <v>109</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>79</v>
@@ -5538,13 +5761,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>175</v>
+        <v>112</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>175</v>
+        <v>112</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -5555,7 +5778,7 @@
         <v>74</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>73</v>
@@ -5567,13 +5790,13 @@
         <v>73</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>176</v>
+        <v>111</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>176</v>
+        <v>111</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
@@ -5624,13 +5847,13 @@
         <v>73</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>73</v>
@@ -5644,13 +5867,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5661,7 +5884,7 @@
         <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>73</v>
@@ -5673,13 +5896,13 @@
         <v>73</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
@@ -5730,13 +5953,13 @@
         <v>73</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>73</v>
@@ -5750,13 +5973,13 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5764,7 +5987,7 @@
       </c>
       <c r="F32" s="2"/>
       <c r="G32" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>79</v>
@@ -5779,13 +6002,13 @@
         <v>73</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
@@ -5836,10 +6059,10 @@
         <v>73</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>79</v>
@@ -5856,13 +6079,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5885,13 +6108,13 @@
         <v>73</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>29</v>
+        <v>123</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
@@ -5942,7 +6165,7 @@
         <v>73</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>79</v>
@@ -5962,13 +6185,13 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5991,13 +6214,13 @@
         <v>73</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
@@ -6048,7 +6271,7 @@
         <v>73</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>74</v>
@@ -6068,13 +6291,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -6082,10 +6305,10 @@
       </c>
       <c r="F35" s="2"/>
       <c r="G35" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>73</v>
@@ -6097,13 +6320,13 @@
         <v>73</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
@@ -6154,13 +6377,13 @@
         <v>73</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>73</v>
@@ -6174,13 +6397,13 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -6203,13 +6426,13 @@
         <v>73</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
@@ -6260,7 +6483,7 @@
         <v>73</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>74</v>
@@ -6280,13 +6503,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -6297,7 +6520,7 @@
         <v>74</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>73</v>
@@ -6309,13 +6532,13 @@
         <v>73</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
@@ -6366,13 +6589,13 @@
         <v>73</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>73</v>
@@ -6386,13 +6609,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>113</v>
+        <v>157</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>113</v>
+        <v>157</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6403,7 +6626,7 @@
         <v>74</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>73</v>
@@ -6415,13 +6638,13 @@
         <v>73</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>111</v>
+        <v>159</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
@@ -6472,13 +6695,13 @@
         <v>73</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>73</v>
@@ -6492,13 +6715,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>116</v>
+        <v>160</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>116</v>
+        <v>160</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6506,7 +6729,7 @@
       </c>
       <c r="F39" s="2"/>
       <c r="G39" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
@@ -6521,13 +6744,13 @@
         <v>73</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>115</v>
+        <v>161</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
@@ -6578,10 +6801,10 @@
         <v>73</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>116</v>
+        <v>160</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>79</v>
@@ -6598,13 +6821,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6627,13 +6850,13 @@
         <v>73</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>85</v>
+        <v>163</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>118</v>
+        <v>29</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>119</v>
+        <v>164</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
@@ -6684,7 +6907,7 @@
         <v>73</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>79</v>
@@ -6704,13 +6927,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>124</v>
+        <v>165</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>124</v>
+        <v>165</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6721,7 +6944,7 @@
         <v>74</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>73</v>
@@ -6733,13 +6956,13 @@
         <v>73</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>122</v>
+        <v>167</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>123</v>
+        <v>167</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
@@ -6790,13 +7013,13 @@
         <v>73</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>73</v>
@@ -6810,13 +7033,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>129</v>
+        <v>168</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>129</v>
+        <v>168</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6827,7 +7050,7 @@
         <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>73</v>
@@ -6839,13 +7062,13 @@
         <v>73</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>126</v>
+        <v>169</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>128</v>
+        <v>170</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
@@ -6896,13 +7119,13 @@
         <v>73</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>129</v>
+        <v>168</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>73</v>
@@ -6916,13 +7139,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6945,13 +7168,13 @@
         <v>73</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
@@ -7002,7 +7225,7 @@
         <v>73</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>74</v>
@@ -7022,13 +7245,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>137</v>
+        <v>174</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>137</v>
+        <v>174</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -7036,7 +7259,7 @@
       </c>
       <c r="F44" s="2"/>
       <c r="G44" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>79</v>
@@ -7051,13 +7274,13 @@
         <v>73</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>136</v>
+        <v>86</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
@@ -7108,10 +7331,10 @@
         <v>73</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>137</v>
+        <v>174</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>79</v>
@@ -7128,13 +7351,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>140</v>
+        <v>176</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>140</v>
+        <v>176</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -7142,7 +7365,7 @@
       </c>
       <c r="F45" s="2"/>
       <c r="G45" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>79</v>
@@ -7157,13 +7380,13 @@
         <v>73</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>139</v>
+        <v>29</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>139</v>
+        <v>177</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
@@ -7214,10 +7437,10 @@
         <v>73</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>140</v>
+        <v>176</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>79</v>
@@ -7234,13 +7457,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>143</v>
+        <v>178</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>143</v>
+        <v>178</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7251,7 +7474,7 @@
         <v>74</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>73</v>
@@ -7263,13 +7486,13 @@
         <v>73</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>142</v>
+        <v>180</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>142</v>
+        <v>180</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
@@ -7320,13 +7543,13 @@
         <v>73</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>73</v>
@@ -7340,13 +7563,13 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7354,7 +7577,7 @@
       </c>
       <c r="F47" s="2"/>
       <c r="G47" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>75</v>
@@ -7369,13 +7592,13 @@
         <v>73</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>179</v>
+        <v>81</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>179</v>
+        <v>82</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
@@ -7426,10 +7649,10 @@
         <v>73</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>75</v>
@@ -7446,13 +7669,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7460,7 +7683,7 @@
       </c>
       <c r="F48" s="2"/>
       <c r="G48" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>79</v>
@@ -7475,13 +7698,13 @@
         <v>73</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M48" t="s" s="2">
         <v>86</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>181</v>
+        <v>87</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
@@ -7532,10 +7755,10 @@
         <v>73</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>180</v>
+        <v>88</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>79</v>
@@ -7552,13 +7775,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7566,7 +7789,7 @@
       </c>
       <c r="F49" s="2"/>
       <c r="G49" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>75</v>
@@ -7581,13 +7804,13 @@
         <v>73</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>184</v>
+        <v>29</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>184</v>
+        <v>90</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
@@ -7638,10 +7861,10 @@
         <v>73</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>75</v>
@@ -7658,13 +7881,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7675,7 +7898,7 @@
         <v>74</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>73</v>
@@ -7687,13 +7910,13 @@
         <v>73</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>181</v>
+        <v>94</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
@@ -7744,13 +7967,13 @@
         <v>73</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>180</v>
+        <v>95</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>73</v>
@@ -7764,13 +7987,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7778,7 +8001,7 @@
       </c>
       <c r="F51" s="2"/>
       <c r="G51" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>79</v>
@@ -7793,13 +8016,13 @@
         <v>73</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>166</v>
+        <v>97</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
@@ -7850,10 +8073,10 @@
         <v>73</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>186</v>
+        <v>100</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>79</v>
@@ -7870,13 +8093,13 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7884,10 +8107,10 @@
       </c>
       <c r="F52" s="2"/>
       <c r="G52" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>73</v>
@@ -7899,13 +8122,13 @@
         <v>73</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>188</v>
+        <v>102</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>189</v>
+        <v>103</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>190</v>
+        <v>104</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
@@ -7956,13 +8179,13 @@
         <v>73</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>73</v>
@@ -7976,13 +8199,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7993,7 +8216,7 @@
         <v>74</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>73</v>
@@ -8005,13 +8228,13 @@
         <v>73</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>193</v>
+        <v>107</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>193</v>
+        <v>108</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
@@ -8062,13 +8285,13 @@
         <v>73</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>73</v>
@@ -8082,13 +8305,13 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -8096,7 +8319,7 @@
       </c>
       <c r="F54" s="2"/>
       <c r="G54" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>79</v>
@@ -8111,13 +8334,13 @@
         <v>73</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>158</v>
+        <v>111</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
@@ -8168,10 +8391,10 @@
         <v>73</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>194</v>
+        <v>112</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>79</v>
@@ -8188,13 +8411,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8217,13 +8440,13 @@
         <v>73</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>160</v>
+        <v>85</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>174</v>
+        <v>115</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
@@ -8274,7 +8497,7 @@
         <v>73</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>195</v>
+        <v>116</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>79</v>
@@ -8294,13 +8517,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8311,7 +8534,7 @@
         <v>74</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>73</v>
@@ -8323,13 +8546,13 @@
         <v>73</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>198</v>
+        <v>118</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>198</v>
+        <v>119</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
@@ -8380,13 +8603,13 @@
         <v>73</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>73</v>
@@ -8400,13 +8623,13 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8414,10 +8637,10 @@
       </c>
       <c r="F57" s="2"/>
       <c r="G57" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>73</v>
@@ -8429,13 +8652,13 @@
         <v>73</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>200</v>
+        <v>124</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
@@ -8486,13 +8709,13 @@
         <v>73</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>199</v>
+        <v>125</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>73</v>
@@ -8506,13 +8729,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8520,10 +8743,10 @@
       </c>
       <c r="F58" s="2"/>
       <c r="G58" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>73</v>
@@ -8535,13 +8758,13 @@
         <v>73</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>166</v>
+        <v>127</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>29</v>
+        <v>128</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>202</v>
+        <v>128</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
@@ -8592,21 +8815,1717 @@
         <v>73</v>
       </c>
       <c r="AG58" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="C59" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F59" s="2"/>
+      <c r="G59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="O59" s="2"/>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R59" s="2"/>
+      <c r="S59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="C60" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F60" s="2"/>
+      <c r="G60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R60" s="2"/>
+      <c r="S60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="C61" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F61" s="2"/>
+      <c r="G61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O61" s="2"/>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R61" s="2"/>
+      <c r="S61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="C62" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F62" s="2"/>
+      <c r="G62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="O62" s="2"/>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R62" s="2"/>
+      <c r="S62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="C63" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F63" s="2"/>
+      <c r="G63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="O63" s="2"/>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R63" s="2"/>
+      <c r="S63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="B64" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="AH58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL58" t="s" s="2">
+      <c r="C64" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F64" s="2"/>
+      <c r="G64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="O64" s="2"/>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R64" s="2"/>
+      <c r="S64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="C65" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F65" s="2"/>
+      <c r="G65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="O65" s="2"/>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R65" s="2"/>
+      <c r="S65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="C66" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F66" s="2"/>
+      <c r="G66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="O66" s="2"/>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R66" s="2"/>
+      <c r="S66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="C67" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F67" s="2"/>
+      <c r="G67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="O67" s="2"/>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R67" s="2"/>
+      <c r="S67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="C68" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F68" s="2"/>
+      <c r="G68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="O68" s="2"/>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R68" s="2"/>
+      <c r="S68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="C69" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F69" s="2"/>
+      <c r="G69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="O69" s="2"/>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R69" s="2"/>
+      <c r="S69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="C70" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F70" s="2"/>
+      <c r="G70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O70" s="2"/>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R70" s="2"/>
+      <c r="S70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="C71" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F71" s="2"/>
+      <c r="G71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="O71" s="2"/>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R71" s="2"/>
+      <c r="S71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="C72" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F72" s="2"/>
+      <c r="G72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="O72" s="2"/>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R72" s="2"/>
+      <c r="S72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="C73" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F73" s="2"/>
+      <c r="G73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="O73" s="2"/>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R73" s="2"/>
+      <c r="S73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="C74" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F74" s="2"/>
+      <c r="G74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="O74" s="2"/>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R74" s="2"/>
+      <c r="S74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL74" t="s" s="2">
         <v>73</v>
       </c>
     </row>
